--- a/natmiOut/OldD0/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.2459692143416</v>
+        <v>109.026058</v>
       </c>
       <c r="H2">
-        <v>29.2459692143416</v>
+        <v>327.078174</v>
       </c>
       <c r="I2">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="J2">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>75.1594514786061</v>
+        <v>223.2367336666667</v>
       </c>
       <c r="N2">
-        <v>75.1594514786061</v>
+        <v>669.710201</v>
       </c>
       <c r="O2">
-        <v>0.8746502364795727</v>
+        <v>0.9523995969492647</v>
       </c>
       <c r="P2">
-        <v>0.8746502364795727</v>
+        <v>0.9523995969492646</v>
       </c>
       <c r="Q2">
-        <v>2198.111004110115</v>
+        <v>24338.62107247255</v>
       </c>
       <c r="R2">
-        <v>2198.111004110115</v>
+        <v>219047.589652253</v>
       </c>
       <c r="S2">
-        <v>0.09298240951568146</v>
+        <v>0.2904667280767473</v>
       </c>
       <c r="T2">
-        <v>0.09298240951568146</v>
+        <v>0.2904667280767473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.2459692143416</v>
+        <v>109.026058</v>
       </c>
       <c r="H3">
-        <v>29.2459692143416</v>
+        <v>327.078174</v>
       </c>
       <c r="I3">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="J3">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.07541410519073</v>
+        <v>4.280784333333333</v>
       </c>
       <c r="N3">
-        <v>4.07541410519073</v>
+        <v>12.842353</v>
       </c>
       <c r="O3">
-        <v>0.04742666212607871</v>
+        <v>0.01826320071400582</v>
       </c>
       <c r="P3">
-        <v>0.04742666212607871</v>
+        <v>0.01826320071400582</v>
       </c>
       <c r="Q3">
-        <v>119.1894354561016</v>
+        <v>466.7170410114913</v>
       </c>
       <c r="R3">
-        <v>119.1894354561016</v>
+        <v>4200.453369103421</v>
       </c>
       <c r="S3">
-        <v>0.005041838595411964</v>
+        <v>0.005569985720908259</v>
       </c>
       <c r="T3">
-        <v>0.005041838595411964</v>
+        <v>0.005569985720908259</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.2459692143416</v>
+        <v>109.026058</v>
       </c>
       <c r="H4">
-        <v>29.2459692143416</v>
+        <v>327.078174</v>
       </c>
       <c r="I4">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="J4">
-        <v>0.1063081053861386</v>
+        <v>0.3049840938689738</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.69599951391292</v>
+        <v>6.876463666666666</v>
       </c>
       <c r="N4">
-        <v>6.69599951391292</v>
+        <v>20.629391</v>
       </c>
       <c r="O4">
-        <v>0.07792310139434849</v>
+        <v>0.02933720233672951</v>
       </c>
       <c r="P4">
-        <v>0.07792310139434849</v>
+        <v>0.0293372023367295</v>
       </c>
       <c r="Q4">
-        <v>195.8309956431436</v>
+        <v>749.7137265568925</v>
       </c>
       <c r="R4">
-        <v>195.8309956431436</v>
+        <v>6747.423539012033</v>
       </c>
       <c r="S4">
-        <v>0.008283857275045162</v>
+        <v>0.008947380071318189</v>
       </c>
       <c r="T4">
-        <v>0.008283857275045162</v>
+        <v>0.008947380071318187</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>89.6762935360389</v>
+        <v>89.97721833333333</v>
       </c>
       <c r="H5">
-        <v>89.6762935360389</v>
+        <v>269.931655</v>
       </c>
       <c r="I5">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001918</v>
       </c>
       <c r="J5">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001917</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>75.1594514786061</v>
+        <v>223.2367336666667</v>
       </c>
       <c r="N5">
-        <v>75.1594514786061</v>
+        <v>669.710201</v>
       </c>
       <c r="O5">
-        <v>0.8746502364795727</v>
+        <v>0.9523995969492647</v>
       </c>
       <c r="P5">
-        <v>0.8746502364795727</v>
+        <v>0.9523995969492646</v>
       </c>
       <c r="Q5">
-        <v>6740.021032803154</v>
+        <v>20086.22032514585</v>
       </c>
       <c r="R5">
-        <v>6740.021032803154</v>
+        <v>180775.9829263126</v>
       </c>
       <c r="S5">
-        <v>0.2851099851848129</v>
+        <v>0.2397168960353539</v>
       </c>
       <c r="T5">
-        <v>0.2851099851848129</v>
+        <v>0.2397168960353538</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>89.6762935360389</v>
+        <v>89.97721833333333</v>
       </c>
       <c r="H6">
-        <v>89.6762935360389</v>
+        <v>269.931655</v>
       </c>
       <c r="I6">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001918</v>
       </c>
       <c r="J6">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001917</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.07541410519073</v>
+        <v>4.280784333333333</v>
       </c>
       <c r="N6">
-        <v>4.07541410519073</v>
+        <v>12.842353</v>
       </c>
       <c r="O6">
-        <v>0.04742666212607871</v>
+        <v>0.01826320071400582</v>
       </c>
       <c r="P6">
-        <v>0.04742666212607871</v>
+        <v>0.01826320071400582</v>
       </c>
       <c r="Q6">
-        <v>365.4680315779972</v>
+        <v>385.1730665982461</v>
       </c>
       <c r="R6">
-        <v>365.4680315779972</v>
+        <v>3466.557599384214</v>
       </c>
       <c r="S6">
-        <v>0.01545968247897139</v>
+        <v>0.004596807685404085</v>
       </c>
       <c r="T6">
-        <v>0.01545968247897139</v>
+        <v>0.004596807685404084</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>89.6762935360389</v>
+        <v>89.97721833333333</v>
       </c>
       <c r="H7">
-        <v>89.6762935360389</v>
+        <v>269.931655</v>
       </c>
       <c r="I7">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001918</v>
       </c>
       <c r="J7">
-        <v>0.3259702830840904</v>
+        <v>0.2516978134001917</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.69599951391292</v>
+        <v>6.876463666666666</v>
       </c>
       <c r="N7">
-        <v>6.69599951391292</v>
+        <v>20.629391</v>
       </c>
       <c r="O7">
-        <v>0.07792310139434849</v>
+        <v>0.02933720233672951</v>
       </c>
       <c r="P7">
-        <v>0.07792310139434849</v>
+        <v>0.0293372023367295</v>
       </c>
       <c r="Q7">
-        <v>600.4724179268288</v>
+        <v>618.7250726969005</v>
       </c>
       <c r="R7">
-        <v>600.4724179268288</v>
+        <v>5568.525654272104</v>
       </c>
       <c r="S7">
-        <v>0.02540061542030606</v>
+        <v>0.007384109679433813</v>
       </c>
       <c r="T7">
-        <v>0.02540061542030606</v>
+        <v>0.00738410967943381</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>156.183469856862</v>
+        <v>158.477852</v>
       </c>
       <c r="H8">
-        <v>156.183469856862</v>
+        <v>475.433556</v>
       </c>
       <c r="I8">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="J8">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>75.1594514786061</v>
+        <v>223.2367336666667</v>
       </c>
       <c r="N8">
-        <v>75.1594514786061</v>
+        <v>669.710201</v>
       </c>
       <c r="O8">
-        <v>0.8746502364795727</v>
+        <v>0.9523995969492647</v>
       </c>
       <c r="P8">
-        <v>0.8746502364795727</v>
+        <v>0.9523995969492646</v>
       </c>
       <c r="Q8">
-        <v>11738.66392446716</v>
+        <v>35378.07803898941</v>
       </c>
       <c r="R8">
-        <v>11738.66392446716</v>
+        <v>318402.7023509047</v>
       </c>
       <c r="S8">
-        <v>0.4965578417790784</v>
+        <v>0.4222159728371634</v>
       </c>
       <c r="T8">
-        <v>0.4965578417790784</v>
+        <v>0.4222159728371634</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>156.183469856862</v>
+        <v>158.477852</v>
       </c>
       <c r="H9">
-        <v>156.183469856862</v>
+        <v>475.433556</v>
       </c>
       <c r="I9">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="J9">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.07541410519073</v>
+        <v>4.280784333333333</v>
       </c>
       <c r="N9">
-        <v>4.07541410519073</v>
+        <v>12.842353</v>
       </c>
       <c r="O9">
-        <v>0.04742666212607871</v>
+        <v>0.01826320071400582</v>
       </c>
       <c r="P9">
-        <v>0.04742666212607871</v>
+        <v>0.01826320071400582</v>
       </c>
       <c r="Q9">
-        <v>636.5123160522866</v>
+        <v>678.4095060219186</v>
       </c>
       <c r="R9">
-        <v>636.5123160522866</v>
+        <v>6105.685554197267</v>
       </c>
       <c r="S9">
-        <v>0.02692514105169537</v>
+        <v>0.008096407307693473</v>
       </c>
       <c r="T9">
-        <v>0.02692514105169537</v>
+        <v>0.008096407307693471</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>156.183469856862</v>
+        <v>158.477852</v>
       </c>
       <c r="H10">
-        <v>156.183469856862</v>
+        <v>475.433556</v>
       </c>
       <c r="I10">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="J10">
-        <v>0.5677216115297711</v>
+        <v>0.4433180927308344</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.69599951391292</v>
+        <v>6.876463666666666</v>
       </c>
       <c r="N10">
-        <v>6.69599951391292</v>
+        <v>20.629391</v>
       </c>
       <c r="O10">
-        <v>0.07792310139434849</v>
+        <v>0.02933720233672951</v>
       </c>
       <c r="P10">
-        <v>0.07792310139434849</v>
+        <v>0.0293372023367295</v>
       </c>
       <c r="Q10">
-        <v>1045.804438242781</v>
+        <v>1089.767191249377</v>
       </c>
       <c r="R10">
-        <v>1045.804438242781</v>
+        <v>9807.904721244395</v>
       </c>
       <c r="S10">
-        <v>0.04423862869899728</v>
+        <v>0.0130057125859775</v>
       </c>
       <c r="T10">
-        <v>0.04423862869899728</v>
+        <v>0.0130057125859775</v>
       </c>
     </row>
   </sheetData>
